--- a/biology/Botanique/Anthrisque_des_dunes/Anthrisque_des_dunes.xlsx
+++ b/biology/Botanique/Anthrisque_des_dunes/Anthrisque_des_dunes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthriscus caucalis
 L'anthrisque commun (Anthriscus caucalis) est une espèce de plantes herbacées annuelles de la famille des Apiaceae.
@@ -512,9 +524,11 @@
           <t>Étymologie et dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique anthriscum  désignait le cerfeuil sauvage[1]. La plante porte comme noms vernaculaires l'« Anthrisque des dunes », le « Persil sauvage », le « Cerfeuil hérissé » ou « Cerfeuil vulgaire » (espèce distincte du cerfeuil sauvage, cerfeuil commun, Cerfeuil tubéreux, plantes comestibles, et du Cerfeuil des fous, espèce toxique)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique anthriscum  désignait le cerfeuil sauvage. La plante porte comme noms vernaculaires l'« Anthrisque des dunes », le « Persil sauvage », le « Cerfeuil hérissé » ou « Cerfeuil vulgaire » (espèce distincte du cerfeuil sauvage, cerfeuil commun, Cerfeuil tubéreux, plantes comestibles, et du Cerfeuil des fous, espèce toxique).
 </t>
         </is>
       </c>
@@ -545,10 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-La plante fait 15 à 80 centimètres de haut. Les racines sont grêles. La tige dressée, striée, creuse, glabre ou à poils épars (ce qui la distingue du Cerfeuil sauvage), est souvent violette à la base. Les feuilles luisantes et comestibles sont, au moins les supérieures, composées pennées, avec des lobes régulièrement disposés, nombreux, courts (3 à 8 mm), mucronés. Froissées, elles dégagent une odeur anisée. La base engainante du long pétiole forme un duvet de poils blancs[3]. 
-Appareil reproducteur
-La période de floraison va de juin à juillet. Les ombelles, généralement latérales et opposées aux feuilles, à 2-7 rayons, sans involucre, sont presque collés à la tige. Les ombellules comportent de 3 à 6 fleurs, avec un involucelle à 4 à 5 bractéoles lancéolées. Les fleurs hermaphrodite ont des sépales non développés et des pétales blancs peu inégaux, de moins de 1 mm. La pollinisation est entomogame, autogame. Le fruit est un akène pyriforme, noirâtre à maturité, de 2,5 à 3,5 mm, couvert d'aiguillons crochus et de petites papilles coniques. La dissémination est épizoochore[3].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante fait 15 à 80 centimètres de haut. Les racines sont grêles. La tige dressée, striée, creuse, glabre ou à poils épars (ce qui la distingue du Cerfeuil sauvage), est souvent violette à la base. Les feuilles luisantes et comestibles sont, au moins les supérieures, composées pennées, avec des lobes régulièrement disposés, nombreux, courts (3 à 8 mm), mucronés. Froissées, elles dégagent une odeur anisée. La base engainante du long pétiole forme un duvet de poils blancs. 
 </t>
         </is>
       </c>
@@ -574,13 +591,52 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La période de floraison va de juin à juillet. Les ombelles, généralement latérales et opposées aux feuilles, à 2-7 rayons, sans involucre, sont presque collés à la tige. Les ombellules comportent de 3 à 6 fleurs, avec un involucelle à 4 à 5 bractéoles lancéolées. Les fleurs hermaphrodite ont des sépales non développés et des pétales blancs peu inégaux, de moins de 1 mm. La pollinisation est entomogame, autogame. Le fruit est un akène pyriforme, noirâtre à maturité, de 2,5 à 3,5 mm, couvert d'aiguillons crochus et de petites papilles coniques. La dissémination est épizoochore.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anthrisque_des_dunes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthrisque_des_dunes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Habitat type : plante nitrocline poussant sur des sols surtout argileux en conditions mésophiles : ourlets rudéralisés, bords de cultures, friches pionnières, talus[4]
-Aire de répartition : eurasiatique[5]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Habitat type : plante nitrocline poussant sur des sols surtout argileux en conditions mésophiles : ourlets rudéralisés, bords de cultures, friches pionnières, talus
+Aire de répartition : eurasiatique</t>
         </is>
       </c>
     </row>
